--- a/CONTEUDOS.xlsx
+++ b/CONTEUDOS.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sávio Cunha\Documents\python - intessivão\PROFESSOR ONLINE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BACKUP\python - intessivão\PROFESSOR ONLINE\1 - ENTRAR NO PROFESSOR ONLINE E CADASTRANDO PLANO DE ENSINO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B5367D-8583-4803-9F9B-B72E9A5AC369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35D185E-21BC-4089-8E42-664135CA6A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{4C238E2D-9682-4D76-A3DD-D90BE19AC0EC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4C238E2D-9682-4D76-A3DD-D90BE19AC0EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$C$18</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
   <si>
     <t>Conteudo</t>
   </si>
@@ -36,122 +39,98 @@
     <t>indice</t>
   </si>
   <si>
-    <t>MODULO 3</t>
-  </si>
-  <si>
-    <t>SEPARAÇÃO DOS ELEMENTOS E EQUILÍBRIO DAS CORES</t>
-  </si>
-  <si>
-    <t>Linhas e Formas</t>
-  </si>
-  <si>
-    <t>Adicionando linhas ao seu layout</t>
-  </si>
-  <si>
-    <t>Como formas podem mudar tudo</t>
-  </si>
-  <si>
-    <t>Formas irregulares</t>
-  </si>
-  <si>
-    <t>Dando vida a suas ideias</t>
-  </si>
-  <si>
-    <t>COMO USAR AS CORES?</t>
-  </si>
-  <si>
-    <t>As Harmonias das Cores</t>
-  </si>
-  <si>
-    <t>O DESIGN E A WEB</t>
-  </si>
-  <si>
-    <t>O que é Web Design?</t>
-  </si>
-  <si>
-    <t>Quais são os principais elementos do Web Design?</t>
-  </si>
-  <si>
-    <t>Quais são as vantagens de investir em um Web Design de qualidade?</t>
-  </si>
-  <si>
-    <t>O que faz um Web Designer?</t>
-  </si>
-  <si>
-    <t>Usuário: o centro das atenções</t>
-  </si>
-  <si>
-    <t>O que é experiência do usuário?</t>
-  </si>
-  <si>
-    <t>Conheça os 5 pilares da experiência do usuário</t>
-  </si>
-  <si>
-    <t>Por que a experiência do usuário é fundamental para a sua estratégia de marketing digital?</t>
-  </si>
-  <si>
-    <t>Seis dicas para oferecer uma experiência do usuário impecável nos seus canais digitais</t>
-  </si>
-  <si>
-    <t>SOFTWARES PARA DESIGN</t>
-  </si>
-  <si>
-    <t>Quais produtos podem ser desenvolvidos?</t>
-  </si>
-  <si>
-    <t>Os principais programas para a criação de arquivos bitmap são:</t>
-  </si>
-  <si>
-    <t>Quais são os melhores programas para designer gráfico?</t>
-  </si>
-  <si>
-    <t>MODULO 4</t>
-  </si>
-  <si>
-    <t>SOFTWARES LIVRES PARA DESIGN GRÁFICO</t>
-  </si>
-  <si>
-    <t>GIMP (Imagem Bitmap)</t>
-  </si>
-  <si>
-    <t>INKSCAPE (Imagem Vetor)</t>
-  </si>
-  <si>
-    <t>XARA (Imagem Vetor)</t>
-  </si>
-  <si>
-    <t>SCRIBUS (Diagramação - Texto)</t>
-  </si>
-  <si>
-    <t>INTERFACES DOS SOFTWARES</t>
-  </si>
-  <si>
-    <t>Área de trabalho do GIMP</t>
-  </si>
-  <si>
-    <t>Área de trabalho do INKSCAPE</t>
-  </si>
-  <si>
-    <t>Área de trabalho do XARA</t>
-  </si>
-  <si>
-    <t>Área de trabalho do SCRIBUS</t>
-  </si>
-  <si>
-    <t>ATIVIDADES PRÁTICAS DE DESIGN</t>
-  </si>
-  <si>
-    <t>TRABALHANDO COM IMAGENS</t>
-  </si>
-  <si>
-    <t>DESENVOLVER UM LAYOUT COMPLETO</t>
+    <t>1. Noções de Lógica de Programação</t>
+  </si>
+  <si>
+    <t>1.1 introdução à raciocínio lógico e a lógica de programação</t>
+  </si>
+  <si>
+    <t>2. Fundamentos de Construção de Algoritmo</t>
+  </si>
+  <si>
+    <t>2.1 Introdução ao algoritmo (escopo)</t>
+  </si>
+  <si>
+    <t>2.2 Formalizando a escrita de algoritmos (descrição narrativa)</t>
+  </si>
+  <si>
+    <t>2.3 Representação gráfica de algoritmos (Fluxograma)</t>
+  </si>
+  <si>
+    <t>2.4 Tipos de linguagens (estruturada e orientada a objetos)</t>
+  </si>
+  <si>
+    <t>2.5 Python: Conceitos básicos da linguagem de programação</t>
+  </si>
+  <si>
+    <t>2.6 Programa, compilação, interpretação e execução.</t>
+  </si>
+  <si>
+    <t>3. Conceitos Básicos de Algoritmo e Python</t>
+  </si>
+  <si>
+    <t>3.1 Declaração de tipos de dados primitivos</t>
+  </si>
+  <si>
+    <t>3.2 Variáveis: sintaxe e atribuição.</t>
+  </si>
+  <si>
+    <t>3.3 Declaração de constantes e comentários</t>
+  </si>
+  <si>
+    <t>3.4 Comandos de atribuição, entrada e saída de dados</t>
+  </si>
+  <si>
+    <t>3.5 Operadores aritméticos e expressões aritméticas</t>
+  </si>
+  <si>
+    <t>4. Expressões lógicas e estruturas de decisão</t>
+  </si>
+  <si>
+    <t>4.1 Operadores relacionais, operadores lógicos e expressões lógicas (portugol e Python)</t>
+  </si>
+  <si>
+    <t>4.2 Estrutura de decisão: portugol (SE-SENÃO, ESCOLHA-FAÇA ) Python (IF-ELSE, ELIF).</t>
+  </si>
+  <si>
+    <t>5. Estruturas de repetição</t>
+  </si>
+  <si>
+    <t>5.1 Estrutura de repetição: portugol (PARA-FAÇA) Python (FOR)</t>
+  </si>
+  <si>
+    <t>5.2 Estrutura de repetição portugol (ENQUANTO-FAÇA) Python (WHILE)</t>
+  </si>
+  <si>
+    <t>6. Subprogramas</t>
+  </si>
+  <si>
+    <t>6.1 Procedimentos</t>
+  </si>
+  <si>
+    <t>6.2 Funções</t>
+  </si>
+  <si>
+    <t>6.3 Funções Recursivas</t>
+  </si>
+  <si>
+    <t>6.4 Função DEF (python)</t>
+  </si>
+  <si>
+    <t>7. Estrutura de dados homogêneas: vetores e matrizes</t>
+  </si>
+  <si>
+    <t>7.1 Estrutura de dados homogêneas unidimensionais (vetor)</t>
+  </si>
+  <si>
+    <t>7.2 Estrutura de dados homogêneas multidimensionais (matriz)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,6 +140,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -186,8 +172,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -502,19 +489,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B68208E8-F204-4DCB-A354-4E1761A25702}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="51.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="96.5546875" customWidth="1"/>
+    <col min="2" max="2" width="51.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="96.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -525,7 +512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -536,382 +523,241 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B23" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="C23" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>39</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:C18" xr:uid="{B68208E8-F204-4DCB-A354-4E1761A25702}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>